--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #12 DICIEMBRE 2023/ENTRADAS CENTRAL PRODUCCION  Diciembre-23.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #12 DICIEMBRE 2023/ENTRADAS CENTRAL PRODUCCION  Diciembre-23.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="68">
   <si>
     <t xml:space="preserve">F L E T E S   NORMA LEDO </t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>V05-4241</t>
+  </si>
+  <si>
+    <t>Transferencia B</t>
   </si>
 </sst>
 </file>
@@ -3796,372 +3799,6 @@
     <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4202,12 +3839,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="119" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4227,6 +3858,378 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="119" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4552,49 +4555,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="604" t="s">
+      <c r="A1" s="551" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="604"/>
-      <c r="C1" s="604"/>
-      <c r="D1" s="604"/>
-      <c r="E1" s="604"/>
-      <c r="F1" s="604"/>
-      <c r="G1" s="604"/>
-      <c r="H1" s="604"/>
-      <c r="I1" s="604"/>
-      <c r="J1" s="604"/>
+      <c r="B1" s="551"/>
+      <c r="C1" s="551"/>
+      <c r="D1" s="551"/>
+      <c r="E1" s="551"/>
+      <c r="F1" s="551"/>
+      <c r="G1" s="551"/>
+      <c r="H1" s="551"/>
+      <c r="I1" s="551"/>
+      <c r="J1" s="551"/>
       <c r="K1" s="1"/>
       <c r="L1" s="2"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="3"/>
-      <c r="S1" s="605" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="605"/>
+      <c r="S1" s="552" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="552"/>
       <c r="U1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="607" t="s">
+      <c r="W1" s="554" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="608"/>
+      <c r="X1" s="555"/>
     </row>
     <row r="2" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="604"/>
-      <c r="B2" s="604"/>
-      <c r="C2" s="604"/>
-      <c r="D2" s="604"/>
-      <c r="E2" s="604"/>
-      <c r="F2" s="604"/>
-      <c r="G2" s="604"/>
-      <c r="H2" s="604"/>
-      <c r="I2" s="604"/>
-      <c r="J2" s="604"/>
+      <c r="A2" s="551"/>
+      <c r="B2" s="551"/>
+      <c r="C2" s="551"/>
+      <c r="D2" s="551"/>
+      <c r="E2" s="551"/>
+      <c r="F2" s="551"/>
+      <c r="G2" s="551"/>
+      <c r="H2" s="551"/>
+      <c r="I2" s="551"/>
+      <c r="J2" s="551"/>
       <c r="K2" s="9"/>
       <c r="L2" s="10"/>
       <c r="M2" s="9"/>
@@ -4602,8 +4605,8 @@
       <c r="O2" s="12"/>
       <c r="Q2" s="13"/>
       <c r="R2" s="14"/>
-      <c r="S2" s="606"/>
-      <c r="T2" s="606"/>
+      <c r="S2" s="553"/>
+      <c r="T2" s="553"/>
       <c r="U2" s="15"/>
       <c r="V2" s="16"/>
       <c r="W2" s="17"/>
@@ -4648,10 +4651,10 @@
       <c r="N3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="609" t="s">
+      <c r="O3" s="556" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="610"/>
+      <c r="P3" s="557"/>
       <c r="Q3" s="32" t="s">
         <v>17</v>
       </c>
@@ -4944,8 +4947,8 @@
         <v>0</v>
       </c>
       <c r="K12" s="69"/>
-      <c r="L12" s="611"/>
-      <c r="M12" s="612"/>
+      <c r="L12" s="558"/>
+      <c r="M12" s="559"/>
       <c r="N12" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6735,13 +6738,13 @@
       <c r="V63" s="207"/>
     </row>
     <row r="64" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="598" t="s">
+      <c r="A64" s="564" t="s">
         <v>30</v>
       </c>
       <c r="B64" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="596" t="s">
+      <c r="C64" s="562" t="s">
         <v>40</v>
       </c>
       <c r="D64" s="209"/>
@@ -6749,10 +6752,10 @@
       <c r="F64" s="493">
         <v>146</v>
       </c>
-      <c r="G64" s="600">
+      <c r="G64" s="566">
         <v>45182</v>
       </c>
-      <c r="H64" s="602" t="s">
+      <c r="H64" s="568" t="s">
         <v>41</v>
       </c>
       <c r="I64" s="491">
@@ -6765,7 +6768,7 @@
       <c r="K64" s="235">
         <v>38</v>
       </c>
-      <c r="L64" s="578" t="s">
+      <c r="L64" s="594" t="s">
         <v>42</v>
       </c>
       <c r="M64" s="487"/>
@@ -6773,10 +6776,10 @@
         <f t="shared" si="1"/>
         <v>5548</v>
       </c>
-      <c r="O64" s="554" t="s">
+      <c r="O64" s="570" t="s">
         <v>21</v>
       </c>
-      <c r="P64" s="556">
+      <c r="P64" s="572">
         <v>45229</v>
       </c>
       <c r="Q64" s="212"/>
@@ -6787,18 +6790,18 @@
       <c r="V64" s="78"/>
     </row>
     <row r="65" spans="1:22" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="599"/>
+      <c r="A65" s="565"/>
       <c r="B65" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="597"/>
+      <c r="C65" s="563"/>
       <c r="D65" s="213"/>
       <c r="E65" s="91"/>
       <c r="F65" s="493">
         <v>185</v>
       </c>
-      <c r="G65" s="601"/>
-      <c r="H65" s="603"/>
+      <c r="G65" s="567"/>
+      <c r="H65" s="569"/>
       <c r="I65" s="491">
         <v>185</v>
       </c>
@@ -6809,14 +6812,14 @@
       <c r="K65" s="235">
         <v>38</v>
       </c>
-      <c r="L65" s="579"/>
+      <c r="L65" s="595"/>
       <c r="M65" s="487"/>
       <c r="N65" s="50">
         <f t="shared" si="1"/>
         <v>7030</v>
       </c>
-      <c r="O65" s="555"/>
-      <c r="P65" s="557"/>
+      <c r="O65" s="571"/>
+      <c r="P65" s="573"/>
       <c r="Q65" s="214"/>
       <c r="R65" s="177"/>
       <c r="S65" s="76"/>
@@ -6825,13 +6828,13 @@
       <c r="V65" s="78"/>
     </row>
     <row r="66" spans="1:22" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="558" t="s">
+      <c r="A66" s="574" t="s">
         <v>30</v>
       </c>
       <c r="B66" s="216" t="s">
         <v>33</v>
       </c>
-      <c r="C66" s="580" t="s">
+      <c r="C66" s="596" t="s">
         <v>46</v>
       </c>
       <c r="D66" s="213"/>
@@ -6839,10 +6842,10 @@
       <c r="F66" s="493">
         <v>163.4</v>
       </c>
-      <c r="G66" s="583">
+      <c r="G66" s="599">
         <v>45188</v>
       </c>
-      <c r="H66" s="586" t="s">
+      <c r="H66" s="602" t="s">
         <v>47</v>
       </c>
       <c r="I66" s="491">
@@ -6855,7 +6858,7 @@
       <c r="K66" s="235">
         <v>163.4</v>
       </c>
-      <c r="L66" s="589" t="s">
+      <c r="L66" s="605" t="s">
         <v>48</v>
       </c>
       <c r="M66" s="487"/>
@@ -6863,10 +6866,10 @@
         <f t="shared" si="1"/>
         <v>26699.56</v>
       </c>
-      <c r="O66" s="591" t="s">
+      <c r="O66" s="607" t="s">
         <v>21</v>
       </c>
-      <c r="P66" s="530">
+      <c r="P66" s="610">
         <v>45229</v>
       </c>
       <c r="Q66" s="214"/>
@@ -6877,18 +6880,18 @@
       <c r="V66" s="78"/>
     </row>
     <row r="67" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="559"/>
+      <c r="A67" s="575"/>
       <c r="B67" s="216" t="s">
         <v>45</v>
       </c>
-      <c r="C67" s="581"/>
+      <c r="C67" s="597"/>
       <c r="D67" s="213"/>
       <c r="E67" s="91"/>
       <c r="F67" s="493">
         <v>85.04</v>
       </c>
-      <c r="G67" s="584"/>
-      <c r="H67" s="587"/>
+      <c r="G67" s="600"/>
+      <c r="H67" s="603"/>
       <c r="I67" s="491">
         <v>85.04</v>
       </c>
@@ -6899,14 +6902,14 @@
       <c r="K67" s="235">
         <v>85.04</v>
       </c>
-      <c r="L67" s="590"/>
+      <c r="L67" s="606"/>
       <c r="M67" s="487"/>
       <c r="N67" s="50">
         <f t="shared" si="1"/>
         <v>7231.8016000000007</v>
       </c>
-      <c r="O67" s="592"/>
-      <c r="P67" s="531"/>
+      <c r="O67" s="608"/>
+      <c r="P67" s="611"/>
       <c r="Q67" s="214"/>
       <c r="R67" s="221"/>
       <c r="S67" s="76"/>
@@ -6915,18 +6918,18 @@
       <c r="V67" s="78"/>
     </row>
     <row r="68" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="559"/>
+      <c r="A68" s="575"/>
       <c r="B68" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="C68" s="581"/>
+      <c r="C68" s="597"/>
       <c r="D68" s="213"/>
       <c r="E68" s="91"/>
       <c r="F68" s="493">
         <v>123.64</v>
       </c>
-      <c r="G68" s="584"/>
-      <c r="H68" s="587"/>
+      <c r="G68" s="600"/>
+      <c r="H68" s="603"/>
       <c r="I68" s="491">
         <v>123.64</v>
       </c>
@@ -6937,14 +6940,14 @@
       <c r="K68" s="235">
         <v>123.64</v>
       </c>
-      <c r="L68" s="590"/>
+      <c r="L68" s="606"/>
       <c r="M68" s="487"/>
       <c r="N68" s="50">
         <f t="shared" si="1"/>
         <v>15286.8496</v>
       </c>
-      <c r="O68" s="592"/>
-      <c r="P68" s="531"/>
+      <c r="O68" s="608"/>
+      <c r="P68" s="611"/>
       <c r="Q68" s="214"/>
       <c r="R68" s="221"/>
       <c r="S68" s="76"/>
@@ -6953,18 +6956,18 @@
       <c r="V68" s="78"/>
     </row>
     <row r="69" spans="1:22" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="560"/>
+      <c r="A69" s="576"/>
       <c r="B69" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="C69" s="582"/>
+      <c r="C69" s="598"/>
       <c r="D69" s="213"/>
       <c r="E69" s="91"/>
       <c r="F69" s="493">
         <v>68.680000000000007</v>
       </c>
-      <c r="G69" s="585"/>
-      <c r="H69" s="588"/>
+      <c r="G69" s="601"/>
+      <c r="H69" s="604"/>
       <c r="I69" s="491">
         <v>68.680000000000007</v>
       </c>
@@ -6975,14 +6978,14 @@
       <c r="K69" s="235">
         <v>68.680000000000007</v>
       </c>
-      <c r="L69" s="590"/>
+      <c r="L69" s="606"/>
       <c r="M69" s="487"/>
       <c r="N69" s="50">
         <f t="shared" si="1"/>
         <v>4716.9424000000008</v>
       </c>
-      <c r="O69" s="593"/>
-      <c r="P69" s="532"/>
+      <c r="O69" s="609"/>
+      <c r="P69" s="612"/>
       <c r="Q69" s="214"/>
       <c r="R69" s="221"/>
       <c r="S69" s="76"/>
@@ -7045,13 +7048,13 @@
       <c r="V70" s="78"/>
     </row>
     <row r="71" spans="1:22" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="536" t="s">
+      <c r="A71" s="616" t="s">
         <v>30</v>
       </c>
       <c r="B71" s="216" t="s">
         <v>45</v>
       </c>
-      <c r="C71" s="539" t="s">
+      <c r="C71" s="619" t="s">
         <v>52</v>
       </c>
       <c r="D71" s="213"/>
@@ -7059,10 +7062,10 @@
       <c r="F71" s="493">
         <v>27.36</v>
       </c>
-      <c r="G71" s="542">
+      <c r="G71" s="622">
         <v>45195</v>
       </c>
-      <c r="H71" s="545" t="s">
+      <c r="H71" s="625" t="s">
         <v>53</v>
       </c>
       <c r="I71" s="491">
@@ -7075,7 +7078,7 @@
       <c r="K71" s="235">
         <v>70</v>
       </c>
-      <c r="L71" s="548" t="s">
+      <c r="L71" s="628" t="s">
         <v>54</v>
       </c>
       <c r="M71" s="487"/>
@@ -7083,10 +7086,10 @@
         <f t="shared" si="1"/>
         <v>1915.2</v>
       </c>
-      <c r="O71" s="551" t="s">
+      <c r="O71" s="631" t="s">
         <v>21</v>
       </c>
-      <c r="P71" s="533">
+      <c r="P71" s="613">
         <v>45229</v>
       </c>
       <c r="Q71" s="214"/>
@@ -7097,18 +7100,18 @@
       <c r="V71" s="78"/>
     </row>
     <row r="72" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="537"/>
+      <c r="A72" s="617"/>
       <c r="B72" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="540"/>
+      <c r="C72" s="620"/>
       <c r="D72" s="213"/>
       <c r="E72" s="91"/>
       <c r="F72" s="493">
         <v>58.08</v>
       </c>
-      <c r="G72" s="543"/>
-      <c r="H72" s="546"/>
+      <c r="G72" s="623"/>
+      <c r="H72" s="626"/>
       <c r="I72" s="491">
         <v>58.08</v>
       </c>
@@ -7119,14 +7122,14 @@
       <c r="K72" s="235">
         <v>70</v>
       </c>
-      <c r="L72" s="549"/>
+      <c r="L72" s="629"/>
       <c r="M72" s="487"/>
       <c r="N72" s="50">
         <f t="shared" si="1"/>
         <v>4065.6</v>
       </c>
-      <c r="O72" s="552"/>
-      <c r="P72" s="534"/>
+      <c r="O72" s="632"/>
+      <c r="P72" s="614"/>
       <c r="Q72" s="214"/>
       <c r="R72" s="221"/>
       <c r="S72" s="76"/>
@@ -7135,18 +7138,18 @@
       <c r="V72" s="78"/>
     </row>
     <row r="73" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="537"/>
+      <c r="A73" s="617"/>
       <c r="B73" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="540"/>
+      <c r="C73" s="620"/>
       <c r="D73" s="213"/>
       <c r="E73" s="91"/>
       <c r="F73" s="493">
         <v>30.02</v>
       </c>
-      <c r="G73" s="543"/>
-      <c r="H73" s="546"/>
+      <c r="G73" s="623"/>
+      <c r="H73" s="626"/>
       <c r="I73" s="491">
         <v>30.02</v>
       </c>
@@ -7157,14 +7160,14 @@
       <c r="K73" s="235">
         <v>38</v>
       </c>
-      <c r="L73" s="549"/>
+      <c r="L73" s="629"/>
       <c r="M73" s="487"/>
       <c r="N73" s="50">
         <f t="shared" si="1"/>
         <v>1140.76</v>
       </c>
-      <c r="O73" s="552"/>
-      <c r="P73" s="534"/>
+      <c r="O73" s="632"/>
+      <c r="P73" s="614"/>
       <c r="Q73" s="214"/>
       <c r="R73" s="221"/>
       <c r="S73" s="76"/>
@@ -7173,18 +7176,18 @@
       <c r="V73" s="78"/>
     </row>
     <row r="74" spans="1:22" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="538"/>
+      <c r="A74" s="618"/>
       <c r="B74" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="C74" s="541"/>
+      <c r="C74" s="621"/>
       <c r="D74" s="213"/>
       <c r="E74" s="91"/>
       <c r="F74" s="493">
         <v>86.18</v>
       </c>
-      <c r="G74" s="544"/>
-      <c r="H74" s="547"/>
+      <c r="G74" s="624"/>
+      <c r="H74" s="627"/>
       <c r="I74" s="491">
         <v>86.18</v>
       </c>
@@ -7195,14 +7198,14 @@
       <c r="K74" s="235">
         <v>60</v>
       </c>
-      <c r="L74" s="550"/>
+      <c r="L74" s="630"/>
       <c r="M74" s="487"/>
       <c r="N74" s="50">
         <f t="shared" si="1"/>
         <v>5170.8</v>
       </c>
-      <c r="O74" s="553"/>
-      <c r="P74" s="535"/>
+      <c r="O74" s="633"/>
+      <c r="P74" s="615"/>
       <c r="Q74" s="214"/>
       <c r="R74" s="221"/>
       <c r="S74" s="76"/>
@@ -7241,13 +7244,13 @@
       <c r="V75" s="78"/>
     </row>
     <row r="76" spans="1:22" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="558" t="s">
+      <c r="A76" s="574" t="s">
         <v>30</v>
       </c>
       <c r="B76" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="C76" s="561" t="s">
+      <c r="C76" s="577" t="s">
         <v>38</v>
       </c>
       <c r="D76" s="213"/>
@@ -7255,10 +7258,10 @@
       <c r="F76" s="493">
         <v>43.58</v>
       </c>
-      <c r="G76" s="564">
+      <c r="G76" s="580">
         <v>45198</v>
       </c>
-      <c r="H76" s="567" t="s">
+      <c r="H76" s="583" t="s">
         <v>43</v>
       </c>
       <c r="I76" s="491">
@@ -7271,7 +7274,7 @@
       <c r="K76" s="235">
         <v>43.58</v>
       </c>
-      <c r="L76" s="570" t="s">
+      <c r="L76" s="586" t="s">
         <v>44</v>
       </c>
       <c r="M76" s="487"/>
@@ -7279,10 +7282,10 @@
         <f t="shared" si="1"/>
         <v>1899.2163999999998</v>
       </c>
-      <c r="O76" s="572" t="s">
+      <c r="O76" s="588" t="s">
         <v>21</v>
       </c>
-      <c r="P76" s="575">
+      <c r="P76" s="591">
         <v>45229</v>
       </c>
       <c r="Q76" s="214"/>
@@ -7293,18 +7296,18 @@
       <c r="V76" s="78"/>
     </row>
     <row r="77" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="559"/>
+      <c r="A77" s="575"/>
       <c r="B77" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="C77" s="562"/>
+      <c r="C77" s="578"/>
       <c r="D77" s="213"/>
       <c r="E77" s="91"/>
       <c r="F77" s="494">
         <v>32.32</v>
       </c>
-      <c r="G77" s="565"/>
-      <c r="H77" s="568"/>
+      <c r="G77" s="581"/>
+      <c r="H77" s="584"/>
       <c r="I77" s="492">
         <v>32.32</v>
       </c>
@@ -7315,14 +7318,14 @@
       <c r="K77" s="235">
         <v>32.32</v>
       </c>
-      <c r="L77" s="570"/>
+      <c r="L77" s="586"/>
       <c r="M77" s="487"/>
       <c r="N77" s="50">
         <f t="shared" si="1"/>
         <v>1044.5824</v>
       </c>
-      <c r="O77" s="573"/>
-      <c r="P77" s="576"/>
+      <c r="O77" s="589"/>
+      <c r="P77" s="592"/>
       <c r="Q77" s="214"/>
       <c r="R77" s="221"/>
       <c r="S77" s="76"/>
@@ -7331,18 +7334,18 @@
       <c r="V77" s="78"/>
     </row>
     <row r="78" spans="1:22" s="208" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="560"/>
+      <c r="A78" s="576"/>
       <c r="B78" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="C78" s="563"/>
+      <c r="C78" s="579"/>
       <c r="D78" s="217"/>
       <c r="E78" s="91"/>
       <c r="F78" s="493">
         <v>110.74</v>
       </c>
-      <c r="G78" s="566"/>
-      <c r="H78" s="569"/>
+      <c r="G78" s="582"/>
+      <c r="H78" s="585"/>
       <c r="I78" s="491">
         <v>110.74</v>
       </c>
@@ -7353,14 +7356,14 @@
       <c r="K78" s="235">
         <v>110.74</v>
       </c>
-      <c r="L78" s="571"/>
+      <c r="L78" s="587"/>
       <c r="M78" s="487"/>
       <c r="N78" s="202">
         <f t="shared" si="1"/>
         <v>12263.347599999999</v>
       </c>
-      <c r="O78" s="574"/>
-      <c r="P78" s="577"/>
+      <c r="O78" s="590"/>
+      <c r="P78" s="593"/>
       <c r="Q78" s="214"/>
       <c r="R78" s="231"/>
       <c r="S78" s="76"/>
@@ -14526,11 +14529,11 @@
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F300" s="594" t="s">
+      <c r="F300" s="560" t="s">
         <v>26</v>
       </c>
-      <c r="G300" s="594"/>
-      <c r="H300" s="595"/>
+      <c r="G300" s="560"/>
+      <c r="H300" s="561"/>
       <c r="I300" s="397">
         <f>SUM(I5:I299)</f>
         <v>1194.54</v>
@@ -15095,16 +15098,14 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="F300:H300"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="P66:P69"/>
+    <mergeCell ref="P71:P74"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="G71:G74"/>
+    <mergeCell ref="H71:H74"/>
+    <mergeCell ref="L71:L74"/>
+    <mergeCell ref="O71:O74"/>
     <mergeCell ref="O64:O65"/>
     <mergeCell ref="P64:P65"/>
     <mergeCell ref="A76:A78"/>
@@ -15121,14 +15122,16 @@
     <mergeCell ref="H66:H69"/>
     <mergeCell ref="L66:L69"/>
     <mergeCell ref="O66:O69"/>
-    <mergeCell ref="P66:P69"/>
-    <mergeCell ref="P71:P74"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="G71:G74"/>
-    <mergeCell ref="H71:H74"/>
-    <mergeCell ref="L71:L74"/>
-    <mergeCell ref="O71:O74"/>
+    <mergeCell ref="F300:H300"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="L12:M12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15172,49 +15175,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="604" t="s">
+      <c r="A1" s="551" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="604"/>
-      <c r="C1" s="604"/>
-      <c r="D1" s="604"/>
-      <c r="E1" s="604"/>
-      <c r="F1" s="604"/>
-      <c r="G1" s="604"/>
-      <c r="H1" s="604"/>
-      <c r="I1" s="604"/>
-      <c r="J1" s="604"/>
+      <c r="B1" s="551"/>
+      <c r="C1" s="551"/>
+      <c r="D1" s="551"/>
+      <c r="E1" s="551"/>
+      <c r="F1" s="551"/>
+      <c r="G1" s="551"/>
+      <c r="H1" s="551"/>
+      <c r="I1" s="551"/>
+      <c r="J1" s="551"/>
       <c r="K1" s="1"/>
       <c r="L1" s="2"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="3"/>
-      <c r="S1" s="605" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="605"/>
+      <c r="S1" s="552" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="552"/>
       <c r="U1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="607" t="s">
+      <c r="W1" s="554" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="608"/>
+      <c r="X1" s="555"/>
     </row>
     <row r="2" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="604"/>
-      <c r="B2" s="604"/>
-      <c r="C2" s="604"/>
-      <c r="D2" s="604"/>
-      <c r="E2" s="604"/>
-      <c r="F2" s="604"/>
-      <c r="G2" s="604"/>
-      <c r="H2" s="604"/>
-      <c r="I2" s="604"/>
-      <c r="J2" s="604"/>
+      <c r="A2" s="551"/>
+      <c r="B2" s="551"/>
+      <c r="C2" s="551"/>
+      <c r="D2" s="551"/>
+      <c r="E2" s="551"/>
+      <c r="F2" s="551"/>
+      <c r="G2" s="551"/>
+      <c r="H2" s="551"/>
+      <c r="I2" s="551"/>
+      <c r="J2" s="551"/>
       <c r="K2" s="9"/>
       <c r="L2" s="10"/>
       <c r="M2" s="9"/>
@@ -15222,8 +15225,8 @@
       <c r="O2" s="12"/>
       <c r="Q2" s="13"/>
       <c r="R2" s="14"/>
-      <c r="S2" s="606"/>
-      <c r="T2" s="606"/>
+      <c r="S2" s="553"/>
+      <c r="T2" s="553"/>
       <c r="U2" s="15"/>
       <c r="V2" s="16"/>
       <c r="W2" s="17"/>
@@ -15268,10 +15271,10 @@
       <c r="N3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="609" t="s">
+      <c r="O3" s="556" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="610"/>
+      <c r="P3" s="557"/>
       <c r="Q3" s="32" t="s">
         <v>17</v>
       </c>
@@ -15564,8 +15567,8 @@
         <v>0</v>
       </c>
       <c r="K12" s="69"/>
-      <c r="L12" s="611"/>
-      <c r="M12" s="612"/>
+      <c r="L12" s="558"/>
+      <c r="M12" s="559"/>
       <c r="N12" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -17355,13 +17358,13 @@
       <c r="V63" s="207"/>
     </row>
     <row r="64" spans="1:24" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="598" t="s">
+      <c r="A64" s="564" t="s">
         <v>30</v>
       </c>
       <c r="B64" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="C64" s="646" t="s">
+      <c r="C64" s="635" t="s">
         <v>39</v>
       </c>
       <c r="D64" s="209"/>
@@ -17369,10 +17372,10 @@
       <c r="F64" s="493">
         <v>127.38</v>
       </c>
-      <c r="G64" s="583">
+      <c r="G64" s="599">
         <v>45202</v>
       </c>
-      <c r="H64" s="602" t="s">
+      <c r="H64" s="568" t="s">
         <v>35</v>
       </c>
       <c r="I64" s="491">
@@ -17385,7 +17388,7 @@
       <c r="K64" s="235">
         <v>70</v>
       </c>
-      <c r="L64" s="649" t="s">
+      <c r="L64" s="638" t="s">
         <v>37</v>
       </c>
       <c r="M64" s="487"/>
@@ -17393,10 +17396,10 @@
         <f t="shared" si="1"/>
         <v>8916.6</v>
       </c>
-      <c r="O64" s="634" t="s">
+      <c r="O64" s="649" t="s">
         <v>36</v>
       </c>
-      <c r="P64" s="637">
+      <c r="P64" s="652">
         <v>45229</v>
       </c>
       <c r="Q64" s="212"/>
@@ -17407,18 +17410,18 @@
       <c r="V64" s="78"/>
     </row>
     <row r="65" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="645"/>
+      <c r="A65" s="634"/>
       <c r="B65" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="C65" s="647"/>
+      <c r="C65" s="636"/>
       <c r="D65" s="213"/>
       <c r="E65" s="91"/>
       <c r="F65" s="493">
         <v>35.1</v>
       </c>
-      <c r="G65" s="584"/>
-      <c r="H65" s="603"/>
+      <c r="G65" s="600"/>
+      <c r="H65" s="569"/>
       <c r="I65" s="491">
         <v>35.1</v>
       </c>
@@ -17429,14 +17432,14 @@
       <c r="K65" s="235">
         <v>60</v>
       </c>
-      <c r="L65" s="650"/>
+      <c r="L65" s="639"/>
       <c r="M65" s="487"/>
       <c r="N65" s="50">
         <f t="shared" si="1"/>
         <v>2106</v>
       </c>
-      <c r="O65" s="635"/>
-      <c r="P65" s="638"/>
+      <c r="O65" s="650"/>
+      <c r="P65" s="653"/>
       <c r="Q65" s="214"/>
       <c r="R65" s="177"/>
       <c r="S65" s="76"/>
@@ -17445,18 +17448,18 @@
       <c r="V65" s="78"/>
     </row>
     <row r="66" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="645"/>
+      <c r="A66" s="634"/>
       <c r="B66" s="216" t="s">
         <v>33</v>
       </c>
-      <c r="C66" s="647"/>
+      <c r="C66" s="636"/>
       <c r="D66" s="213"/>
       <c r="E66" s="91"/>
       <c r="F66" s="493">
         <v>94.5</v>
       </c>
-      <c r="G66" s="584"/>
-      <c r="H66" s="603"/>
+      <c r="G66" s="600"/>
+      <c r="H66" s="569"/>
       <c r="I66" s="491">
         <v>94.5</v>
       </c>
@@ -17467,14 +17470,14 @@
       <c r="K66" s="235">
         <v>110</v>
       </c>
-      <c r="L66" s="650"/>
+      <c r="L66" s="639"/>
       <c r="M66" s="487"/>
       <c r="N66" s="50">
         <f t="shared" si="1"/>
         <v>10395</v>
       </c>
-      <c r="O66" s="635"/>
-      <c r="P66" s="638"/>
+      <c r="O66" s="650"/>
+      <c r="P66" s="653"/>
       <c r="Q66" s="214"/>
       <c r="R66" s="177"/>
       <c r="S66" s="76"/>
@@ -17483,18 +17486,18 @@
       <c r="V66" s="78"/>
     </row>
     <row r="67" spans="1:22" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="599"/>
+      <c r="A67" s="565"/>
       <c r="B67" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="648"/>
+      <c r="C67" s="637"/>
       <c r="D67" s="213"/>
       <c r="E67" s="91"/>
       <c r="F67" s="494">
         <v>100.88</v>
       </c>
-      <c r="G67" s="585"/>
-      <c r="H67" s="603"/>
+      <c r="G67" s="601"/>
+      <c r="H67" s="569"/>
       <c r="I67" s="492">
         <v>100.88</v>
       </c>
@@ -17505,14 +17508,14 @@
       <c r="K67" s="235">
         <v>38</v>
       </c>
-      <c r="L67" s="651"/>
+      <c r="L67" s="640"/>
       <c r="M67" s="487"/>
       <c r="N67" s="50">
         <f t="shared" si="1"/>
         <v>3833.4399999999996</v>
       </c>
-      <c r="O67" s="636"/>
-      <c r="P67" s="639"/>
+      <c r="O67" s="651"/>
+      <c r="P67" s="654"/>
       <c r="Q67" s="214"/>
       <c r="R67" s="177"/>
       <c r="S67" s="76"/>
@@ -17521,13 +17524,13 @@
       <c r="V67" s="78"/>
     </row>
     <row r="68" spans="1:22" s="208" customFormat="1" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="558" t="s">
+      <c r="A68" s="574" t="s">
         <v>30</v>
       </c>
       <c r="B68" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="C68" s="624" t="s">
+      <c r="C68" s="671" t="s">
         <v>38</v>
       </c>
       <c r="D68" s="217"/>
@@ -17535,8 +17538,8 @@
       <c r="F68" s="493">
         <v>43.58</v>
       </c>
-      <c r="G68" s="640"/>
-      <c r="H68" s="642"/>
+      <c r="G68" s="655"/>
+      <c r="H68" s="657"/>
       <c r="I68" s="491"/>
       <c r="J68" s="229">
         <f t="shared" si="0"/>
@@ -17559,18 +17562,18 @@
       <c r="V68" s="207"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A69" s="559"/>
+      <c r="A69" s="575"/>
       <c r="B69" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="C69" s="625"/>
+      <c r="C69" s="672"/>
       <c r="D69" s="213"/>
       <c r="E69" s="91"/>
       <c r="F69" s="493">
         <v>32.32</v>
       </c>
-      <c r="G69" s="641"/>
-      <c r="H69" s="643"/>
+      <c r="G69" s="656"/>
+      <c r="H69" s="658"/>
       <c r="I69" s="491"/>
       <c r="J69" s="229">
         <f t="shared" si="0"/>
@@ -17587,28 +17590,28 @@
       <c r="P69" s="464"/>
       <c r="Q69" s="241"/>
       <c r="R69" s="221"/>
-      <c r="S69" s="621">
+      <c r="S69" s="668">
         <v>28000</v>
       </c>
-      <c r="T69" s="621" t="s">
+      <c r="T69" s="668" t="s">
         <v>24</v>
       </c>
       <c r="U69" s="222"/>
       <c r="V69" s="78"/>
     </row>
     <row r="70" spans="1:22" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="559"/>
+      <c r="A70" s="575"/>
       <c r="B70" s="521" t="s">
         <v>34</v>
       </c>
-      <c r="C70" s="625"/>
+      <c r="C70" s="672"/>
       <c r="D70" s="213"/>
       <c r="E70" s="91"/>
       <c r="F70" s="493">
         <v>110.74</v>
       </c>
-      <c r="G70" s="641"/>
-      <c r="H70" s="644"/>
+      <c r="G70" s="656"/>
+      <c r="H70" s="659"/>
       <c r="I70" s="491"/>
       <c r="J70" s="229">
         <f t="shared" si="0"/>
@@ -17625,8 +17628,8 @@
       <c r="P70" s="464"/>
       <c r="Q70" s="241"/>
       <c r="R70" s="221"/>
-      <c r="S70" s="622"/>
-      <c r="T70" s="622"/>
+      <c r="S70" s="669"/>
+      <c r="T70" s="669"/>
       <c r="U70" s="222"/>
       <c r="V70" s="78"/>
     </row>
@@ -17671,26 +17674,26 @@
       <c r="P71" s="464"/>
       <c r="Q71" s="241"/>
       <c r="R71" s="221"/>
-      <c r="S71" s="622"/>
-      <c r="T71" s="622"/>
+      <c r="S71" s="669"/>
+      <c r="T71" s="669"/>
       <c r="U71" s="222"/>
       <c r="V71" s="78"/>
     </row>
     <row r="72" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="613" t="s">
+      <c r="A72" s="660" t="s">
         <v>55</v>
       </c>
-      <c r="B72" s="615" t="s">
+      <c r="B72" s="662" t="s">
         <v>56</v>
       </c>
-      <c r="C72" s="616"/>
+      <c r="C72" s="663"/>
       <c r="D72" s="517"/>
       <c r="E72" s="517"/>
       <c r="F72" s="517"/>
-      <c r="G72" s="619">
+      <c r="G72" s="666">
         <v>45230</v>
       </c>
-      <c r="H72" s="632" t="s">
+      <c r="H72" s="647" t="s">
         <v>57</v>
       </c>
       <c r="I72" s="483">
@@ -17715,20 +17718,20 @@
       <c r="P72" s="464"/>
       <c r="Q72" s="241"/>
       <c r="R72" s="221"/>
-      <c r="S72" s="622"/>
-      <c r="T72" s="622"/>
+      <c r="S72" s="669"/>
+      <c r="T72" s="669"/>
       <c r="U72" s="222"/>
       <c r="V72" s="78"/>
     </row>
     <row r="73" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="614"/>
-      <c r="B73" s="617"/>
-      <c r="C73" s="618"/>
+      <c r="A73" s="661"/>
+      <c r="B73" s="664"/>
+      <c r="C73" s="665"/>
       <c r="D73" s="518"/>
       <c r="E73" s="518"/>
       <c r="F73" s="518"/>
-      <c r="G73" s="620"/>
-      <c r="H73" s="633"/>
+      <c r="G73" s="667"/>
+      <c r="H73" s="648"/>
       <c r="I73" s="483"/>
       <c r="J73" s="229"/>
       <c r="K73" s="226"/>
@@ -17742,8 +17745,8 @@
       <c r="P73" s="464"/>
       <c r="Q73" s="241"/>
       <c r="R73" s="221"/>
-      <c r="S73" s="622"/>
-      <c r="T73" s="622"/>
+      <c r="S73" s="669"/>
+      <c r="T73" s="669"/>
       <c r="U73" s="222"/>
       <c r="V73" s="78"/>
     </row>
@@ -17769,8 +17772,8 @@
       <c r="P74" s="464"/>
       <c r="Q74" s="241"/>
       <c r="R74" s="221"/>
-      <c r="S74" s="622"/>
-      <c r="T74" s="622"/>
+      <c r="S74" s="669"/>
+      <c r="T74" s="669"/>
       <c r="U74" s="222"/>
       <c r="V74" s="78"/>
     </row>
@@ -17799,8 +17802,8 @@
       <c r="P75" s="464"/>
       <c r="Q75" s="241"/>
       <c r="R75" s="221"/>
-      <c r="S75" s="623"/>
-      <c r="T75" s="623"/>
+      <c r="S75" s="670"/>
+      <c r="T75" s="670"/>
       <c r="U75" s="222"/>
       <c r="V75" s="78"/>
     </row>
@@ -17829,10 +17832,10 @@
       <c r="P76" s="464"/>
       <c r="Q76" s="241"/>
       <c r="R76" s="231"/>
-      <c r="S76" s="626">
+      <c r="S76" s="641">
         <v>28000</v>
       </c>
-      <c r="T76" s="629" t="s">
+      <c r="T76" s="644" t="s">
         <v>25</v>
       </c>
       <c r="U76" s="232"/>
@@ -17863,8 +17866,8 @@
       <c r="P77" s="464"/>
       <c r="Q77" s="241"/>
       <c r="R77" s="221"/>
-      <c r="S77" s="627"/>
-      <c r="T77" s="630"/>
+      <c r="S77" s="642"/>
+      <c r="T77" s="645"/>
       <c r="U77" s="222"/>
       <c r="V77" s="78"/>
     </row>
@@ -17892,8 +17895,8 @@
       <c r="P78" s="464"/>
       <c r="Q78" s="241"/>
       <c r="R78" s="221"/>
-      <c r="S78" s="627"/>
-      <c r="T78" s="630"/>
+      <c r="S78" s="642"/>
+      <c r="T78" s="645"/>
       <c r="U78" s="222"/>
       <c r="V78" s="78"/>
     </row>
@@ -17922,8 +17925,8 @@
       <c r="P79" s="464"/>
       <c r="Q79" s="241"/>
       <c r="R79" s="221"/>
-      <c r="S79" s="628"/>
-      <c r="T79" s="631"/>
+      <c r="S79" s="643"/>
+      <c r="T79" s="646"/>
       <c r="U79" s="222"/>
       <c r="V79" s="78"/>
     </row>
@@ -24790,11 +24793,11 @@
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F291" s="594" t="s">
+      <c r="F291" s="560" t="s">
         <v>26</v>
       </c>
-      <c r="G291" s="594"/>
-      <c r="H291" s="595"/>
+      <c r="G291" s="560"/>
+      <c r="H291" s="561"/>
       <c r="I291" s="397">
         <f>SUM(I5:I290)</f>
         <v>55677.99</v>
@@ -25359,16 +25362,13 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="G64:G67"/>
-    <mergeCell ref="H64:H67"/>
-    <mergeCell ref="L64:L67"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:C73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="S69:S75"/>
+    <mergeCell ref="T69:T75"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="C68:C70"/>
     <mergeCell ref="S76:S79"/>
     <mergeCell ref="T76:T79"/>
     <mergeCell ref="F291:H291"/>
@@ -25377,13 +25377,16 @@
     <mergeCell ref="P64:P67"/>
     <mergeCell ref="G68:G70"/>
     <mergeCell ref="H68:H70"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:C73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="S69:S75"/>
-    <mergeCell ref="T69:T75"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="G64:G67"/>
+    <mergeCell ref="H64:H67"/>
+    <mergeCell ref="L64:L67"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="L12:M12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25396,9 +25399,9 @@
   </sheetPr>
   <dimension ref="A1:X324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O64" sqref="O64"/>
+      <selection pane="bottomLeft" activeCell="O65" sqref="O65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -25428,49 +25431,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="604" t="s">
+      <c r="A1" s="551" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="604"/>
-      <c r="C1" s="604"/>
-      <c r="D1" s="604"/>
-      <c r="E1" s="604"/>
-      <c r="F1" s="604"/>
-      <c r="G1" s="604"/>
-      <c r="H1" s="604"/>
-      <c r="I1" s="604"/>
-      <c r="J1" s="604"/>
+      <c r="B1" s="551"/>
+      <c r="C1" s="551"/>
+      <c r="D1" s="551"/>
+      <c r="E1" s="551"/>
+      <c r="F1" s="551"/>
+      <c r="G1" s="551"/>
+      <c r="H1" s="551"/>
+      <c r="I1" s="551"/>
+      <c r="J1" s="551"/>
       <c r="K1" s="1"/>
       <c r="L1" s="2"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="3"/>
-      <c r="S1" s="605" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="605"/>
+      <c r="S1" s="552" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="552"/>
       <c r="U1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="607" t="s">
+      <c r="W1" s="554" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="608"/>
+      <c r="X1" s="555"/>
     </row>
     <row r="2" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="604"/>
-      <c r="B2" s="604"/>
-      <c r="C2" s="604"/>
-      <c r="D2" s="604"/>
-      <c r="E2" s="604"/>
-      <c r="F2" s="604"/>
-      <c r="G2" s="604"/>
-      <c r="H2" s="604"/>
-      <c r="I2" s="604"/>
-      <c r="J2" s="604"/>
+      <c r="A2" s="551"/>
+      <c r="B2" s="551"/>
+      <c r="C2" s="551"/>
+      <c r="D2" s="551"/>
+      <c r="E2" s="551"/>
+      <c r="F2" s="551"/>
+      <c r="G2" s="551"/>
+      <c r="H2" s="551"/>
+      <c r="I2" s="551"/>
+      <c r="J2" s="551"/>
       <c r="K2" s="9"/>
       <c r="L2" s="10"/>
       <c r="M2" s="9"/>
@@ -25478,8 +25481,8 @@
       <c r="O2" s="12"/>
       <c r="Q2" s="13"/>
       <c r="R2" s="14"/>
-      <c r="S2" s="606"/>
-      <c r="T2" s="606"/>
+      <c r="S2" s="553"/>
+      <c r="T2" s="553"/>
       <c r="U2" s="15"/>
       <c r="V2" s="16"/>
       <c r="W2" s="17"/>
@@ -25524,10 +25527,10 @@
       <c r="N3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="609" t="s">
+      <c r="O3" s="556" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="610"/>
+      <c r="P3" s="557"/>
       <c r="Q3" s="32" t="s">
         <v>17</v>
       </c>
@@ -25820,8 +25823,8 @@
         <v>0</v>
       </c>
       <c r="K12" s="69"/>
-      <c r="L12" s="611"/>
-      <c r="M12" s="612"/>
+      <c r="L12" s="558"/>
+      <c r="M12" s="559"/>
       <c r="N12" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -27597,14 +27600,14 @@
       <c r="H63" s="199"/>
       <c r="I63" s="198"/>
       <c r="J63" s="200"/>
-      <c r="K63" s="663"/>
+      <c r="K63" s="541"/>
       <c r="L63" s="102"/>
       <c r="M63" s="103"/>
       <c r="N63" s="202"/>
       <c r="O63" s="203"/>
       <c r="P63" s="204"/>
-      <c r="Q63" s="668"/>
-      <c r="R63" s="669"/>
+      <c r="Q63" s="544"/>
+      <c r="R63" s="545"/>
       <c r="S63" s="76"/>
       <c r="T63" s="76"/>
       <c r="U63" s="206"/>
@@ -27614,10 +27617,10 @@
       <c r="A64" s="247" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="652" t="s">
+      <c r="B64" s="530" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="674" t="s">
+      <c r="C64" s="550" t="s">
         <v>65</v>
       </c>
       <c r="D64" s="168"/>
@@ -27625,10 +27628,10 @@
       <c r="F64" s="483">
         <v>480</v>
       </c>
-      <c r="G64" s="654">
+      <c r="G64" s="532">
         <v>45266</v>
       </c>
-      <c r="H64" s="655" t="s">
+      <c r="H64" s="533" t="s">
         <v>66</v>
       </c>
       <c r="I64" s="483">
@@ -27641,15 +27644,19 @@
       <c r="K64" s="226">
         <v>260</v>
       </c>
-      <c r="L64" s="664"/>
+      <c r="L64" s="542"/>
       <c r="M64" s="219"/>
       <c r="N64" s="50">
         <f t="shared" si="1"/>
         <v>124800</v>
       </c>
-      <c r="O64" s="670"/>
-      <c r="P64" s="671"/>
-      <c r="Q64" s="672"/>
+      <c r="O64" s="546" t="s">
+        <v>67</v>
+      </c>
+      <c r="P64" s="547">
+        <v>45273</v>
+      </c>
+      <c r="Q64" s="548"/>
       <c r="R64" s="177"/>
       <c r="S64" s="139"/>
       <c r="T64" s="76"/>
@@ -27658,27 +27665,27 @@
     </row>
     <row r="65" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="247"/>
-      <c r="B65" s="652"/>
-      <c r="C65" s="653"/>
-      <c r="D65" s="656"/>
+      <c r="B65" s="530"/>
+      <c r="C65" s="531"/>
+      <c r="D65" s="534"/>
       <c r="E65" s="91"/>
       <c r="F65" s="483"/>
-      <c r="G65" s="654"/>
-      <c r="H65" s="655"/>
+      <c r="G65" s="532"/>
+      <c r="H65" s="533"/>
       <c r="I65" s="483"/>
       <c r="J65" s="229">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K65" s="226"/>
-      <c r="L65" s="664"/>
+      <c r="L65" s="542"/>
       <c r="M65" s="219"/>
       <c r="N65" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O65" s="670"/>
-      <c r="P65" s="671"/>
+      <c r="O65" s="546"/>
+      <c r="P65" s="547"/>
       <c r="Q65" s="241"/>
       <c r="R65" s="177"/>
       <c r="S65" s="139"/>
@@ -27688,27 +27695,27 @@
     </row>
     <row r="66" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="247"/>
-      <c r="B66" s="652"/>
-      <c r="C66" s="653"/>
-      <c r="D66" s="656"/>
+      <c r="B66" s="530"/>
+      <c r="C66" s="531"/>
+      <c r="D66" s="534"/>
       <c r="E66" s="91"/>
       <c r="F66" s="483"/>
-      <c r="G66" s="654"/>
-      <c r="H66" s="655"/>
+      <c r="G66" s="532"/>
+      <c r="H66" s="533"/>
       <c r="I66" s="483"/>
       <c r="J66" s="229">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K66" s="226"/>
-      <c r="L66" s="664"/>
+      <c r="L66" s="542"/>
       <c r="M66" s="219"/>
       <c r="N66" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O66" s="670"/>
-      <c r="P66" s="671"/>
+      <c r="O66" s="546"/>
+      <c r="P66" s="547"/>
       <c r="Q66" s="241"/>
       <c r="R66" s="177"/>
       <c r="S66" s="139"/>
@@ -27718,27 +27725,27 @@
     </row>
     <row r="67" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="247"/>
-      <c r="B67" s="652"/>
-      <c r="C67" s="653"/>
-      <c r="D67" s="656"/>
+      <c r="B67" s="530"/>
+      <c r="C67" s="531"/>
+      <c r="D67" s="534"/>
       <c r="E67" s="91"/>
       <c r="F67" s="483"/>
-      <c r="G67" s="654"/>
-      <c r="H67" s="655"/>
+      <c r="G67" s="532"/>
+      <c r="H67" s="533"/>
       <c r="I67" s="483"/>
       <c r="J67" s="229">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K67" s="226"/>
-      <c r="L67" s="664"/>
+      <c r="L67" s="542"/>
       <c r="M67" s="219"/>
       <c r="N67" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O67" s="670"/>
-      <c r="P67" s="671"/>
+      <c r="O67" s="546"/>
+      <c r="P67" s="547"/>
       <c r="Q67" s="241"/>
       <c r="R67" s="177"/>
       <c r="S67" s="139"/>
@@ -27748,7 +27755,7 @@
     </row>
     <row r="68" spans="1:22" s="208" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="247"/>
-      <c r="B68" s="652"/>
+      <c r="B68" s="530"/>
       <c r="C68" s="497"/>
       <c r="D68" s="264"/>
       <c r="E68" s="91"/>
@@ -27768,19 +27775,19 @@
         <v>0</v>
       </c>
       <c r="O68" s="264"/>
-      <c r="P68" s="673"/>
+      <c r="P68" s="549"/>
       <c r="Q68" s="241"/>
       <c r="R68" s="205"/>
-      <c r="S68" s="665"/>
+      <c r="S68" s="543"/>
       <c r="T68" s="220"/>
       <c r="U68" s="206"/>
       <c r="V68" s="207"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A69" s="247"/>
-      <c r="B69" s="652"/>
+      <c r="B69" s="530"/>
       <c r="C69" s="497"/>
-      <c r="D69" s="656"/>
+      <c r="D69" s="534"/>
       <c r="E69" s="91"/>
       <c r="F69" s="483"/>
       <c r="G69" s="484"/>
@@ -27801,10 +27808,10 @@
       <c r="P69" s="464"/>
       <c r="Q69" s="241"/>
       <c r="R69" s="177"/>
-      <c r="S69" s="666">
+      <c r="S69" s="673">
         <v>28000</v>
       </c>
-      <c r="T69" s="621" t="s">
+      <c r="T69" s="668" t="s">
         <v>24</v>
       </c>
       <c r="U69" s="222"/>
@@ -27812,9 +27819,9 @@
     </row>
     <row r="70" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="247"/>
-      <c r="B70" s="652"/>
+      <c r="B70" s="530"/>
       <c r="C70" s="497"/>
-      <c r="D70" s="656"/>
+      <c r="D70" s="534"/>
       <c r="E70" s="91"/>
       <c r="F70" s="483"/>
       <c r="G70" s="484"/>
@@ -27835,20 +27842,20 @@
       <c r="P70" s="464"/>
       <c r="Q70" s="241"/>
       <c r="R70" s="177"/>
-      <c r="S70" s="667"/>
-      <c r="T70" s="622"/>
+      <c r="S70" s="674"/>
+      <c r="T70" s="669"/>
       <c r="U70" s="222"/>
       <c r="V70" s="78"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A71" s="657"/>
-      <c r="B71" s="652"/>
-      <c r="C71" s="658"/>
-      <c r="D71" s="656"/>
+      <c r="A71" s="535"/>
+      <c r="B71" s="530"/>
+      <c r="C71" s="536"/>
+      <c r="D71" s="534"/>
       <c r="E71" s="91"/>
       <c r="F71" s="483"/>
       <c r="G71" s="477"/>
-      <c r="H71" s="659"/>
+      <c r="H71" s="537"/>
       <c r="I71" s="483"/>
       <c r="J71" s="229">
         <f t="shared" si="0"/>
@@ -27865,19 +27872,19 @@
       <c r="P71" s="464"/>
       <c r="Q71" s="241"/>
       <c r="R71" s="177"/>
-      <c r="S71" s="667"/>
-      <c r="T71" s="622"/>
+      <c r="S71" s="674"/>
+      <c r="T71" s="669"/>
       <c r="U71" s="222"/>
       <c r="V71" s="78"/>
     </row>
     <row r="72" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="247"/>
-      <c r="B72" s="660"/>
-      <c r="C72" s="660"/>
-      <c r="D72" s="661"/>
-      <c r="E72" s="661"/>
-      <c r="F72" s="661"/>
-      <c r="G72" s="662"/>
+      <c r="B72" s="538"/>
+      <c r="C72" s="538"/>
+      <c r="D72" s="539"/>
+      <c r="E72" s="539"/>
+      <c r="F72" s="539"/>
+      <c r="G72" s="540"/>
       <c r="H72" s="138"/>
       <c r="I72" s="483"/>
       <c r="J72" s="229">
@@ -27895,19 +27902,19 @@
       <c r="P72" s="464"/>
       <c r="Q72" s="241"/>
       <c r="R72" s="177"/>
-      <c r="S72" s="667"/>
-      <c r="T72" s="622"/>
+      <c r="S72" s="674"/>
+      <c r="T72" s="669"/>
       <c r="U72" s="222"/>
       <c r="V72" s="78"/>
     </row>
     <row r="73" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="247"/>
-      <c r="B73" s="660"/>
-      <c r="C73" s="660"/>
-      <c r="D73" s="661"/>
-      <c r="E73" s="661"/>
-      <c r="F73" s="661"/>
-      <c r="G73" s="662"/>
+      <c r="B73" s="538"/>
+      <c r="C73" s="538"/>
+      <c r="D73" s="539"/>
+      <c r="E73" s="539"/>
+      <c r="F73" s="539"/>
+      <c r="G73" s="540"/>
       <c r="H73" s="138"/>
       <c r="I73" s="483"/>
       <c r="J73" s="229"/>
@@ -27922,19 +27929,19 @@
       <c r="P73" s="464"/>
       <c r="Q73" s="241"/>
       <c r="R73" s="177"/>
-      <c r="S73" s="667"/>
-      <c r="T73" s="622"/>
+      <c r="S73" s="674"/>
+      <c r="T73" s="669"/>
       <c r="U73" s="222"/>
       <c r="V73" s="78"/>
     </row>
     <row r="74" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="247"/>
-      <c r="B74" s="652"/>
+      <c r="B74" s="530"/>
       <c r="C74" s="460"/>
-      <c r="D74" s="656"/>
+      <c r="D74" s="534"/>
       <c r="E74" s="91"/>
       <c r="F74" s="483"/>
-      <c r="G74" s="654"/>
+      <c r="G74" s="532"/>
       <c r="H74" s="483"/>
       <c r="I74" s="483"/>
       <c r="J74" s="229"/>
@@ -27949,19 +27956,19 @@
       <c r="P74" s="464"/>
       <c r="Q74" s="241"/>
       <c r="R74" s="221"/>
-      <c r="S74" s="622"/>
-      <c r="T74" s="622"/>
+      <c r="S74" s="669"/>
+      <c r="T74" s="669"/>
       <c r="U74" s="222"/>
       <c r="V74" s="78"/>
     </row>
     <row r="75" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="247"/>
-      <c r="B75" s="652"/>
+      <c r="B75" s="530"/>
       <c r="C75" s="460"/>
-      <c r="D75" s="656"/>
+      <c r="D75" s="534"/>
       <c r="E75" s="91"/>
       <c r="F75" s="483"/>
-      <c r="G75" s="654"/>
+      <c r="G75" s="532"/>
       <c r="H75" s="483"/>
       <c r="I75" s="483"/>
       <c r="J75" s="229">
@@ -27979,14 +27986,14 @@
       <c r="P75" s="464"/>
       <c r="Q75" s="241"/>
       <c r="R75" s="221"/>
-      <c r="S75" s="623"/>
-      <c r="T75" s="623"/>
+      <c r="S75" s="670"/>
+      <c r="T75" s="670"/>
       <c r="U75" s="222"/>
       <c r="V75" s="78"/>
     </row>
     <row r="76" spans="1:22" s="208" customFormat="1" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A76" s="132"/>
-      <c r="B76" s="652"/>
+      <c r="B76" s="530"/>
       <c r="C76" s="461"/>
       <c r="D76" s="228"/>
       <c r="E76" s="228"/>
@@ -28009,10 +28016,10 @@
       <c r="P76" s="464"/>
       <c r="Q76" s="241"/>
       <c r="R76" s="231"/>
-      <c r="S76" s="626">
+      <c r="S76" s="641">
         <v>28000</v>
       </c>
-      <c r="T76" s="629" t="s">
+      <c r="T76" s="644" t="s">
         <v>25</v>
       </c>
       <c r="U76" s="232"/>
@@ -28043,8 +28050,8 @@
       <c r="P77" s="464"/>
       <c r="Q77" s="241"/>
       <c r="R77" s="221"/>
-      <c r="S77" s="627"/>
-      <c r="T77" s="630"/>
+      <c r="S77" s="642"/>
+      <c r="T77" s="645"/>
       <c r="U77" s="222"/>
       <c r="V77" s="78"/>
     </row>
@@ -28072,8 +28079,8 @@
       <c r="P78" s="464"/>
       <c r="Q78" s="241"/>
       <c r="R78" s="221"/>
-      <c r="S78" s="627"/>
-      <c r="T78" s="630"/>
+      <c r="S78" s="642"/>
+      <c r="T78" s="645"/>
       <c r="U78" s="222"/>
       <c r="V78" s="78"/>
     </row>
@@ -28102,8 +28109,8 @@
       <c r="P79" s="464"/>
       <c r="Q79" s="241"/>
       <c r="R79" s="221"/>
-      <c r="S79" s="628"/>
-      <c r="T79" s="631"/>
+      <c r="S79" s="643"/>
+      <c r="T79" s="646"/>
       <c r="U79" s="222"/>
       <c r="V79" s="78"/>
     </row>
@@ -34970,11 +34977,11 @@
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F291" s="594" t="s">
+      <c r="F291" s="560" t="s">
         <v>26</v>
       </c>
-      <c r="G291" s="594"/>
-      <c r="H291" s="595"/>
+      <c r="G291" s="560"/>
+      <c r="H291" s="561"/>
       <c r="I291" s="397">
         <f>SUM(I5:I290)</f>
         <v>480</v>
@@ -35539,16 +35546,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="L12:M12"/>
     <mergeCell ref="S76:S79"/>
     <mergeCell ref="T76:T79"/>
     <mergeCell ref="F291:H291"/>
     <mergeCell ref="S69:S75"/>
     <mergeCell ref="T69:T75"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="L12:M12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
